--- a/larray/tests/data/population_session.xlsx
+++ b/larray/tests/data/population_session.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADEEFBD-59E3-444B-A6B0-4AD5D553A0DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAC6DF77-6D72-469C-89FC-D9425B097090}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{B2C3A429-FC47-4D99-A7F6-D8A8C3F4E1FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" activeTab="4" xr2:uid="{8D7828AD-A73A-427D-A5F2-6F89353C8F45}"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,11 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -31,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
   <si>
-    <t>geo</t>
+    <t>country</t>
   </si>
   <si>
     <t>gender\time</t>
@@ -412,7 +417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D5FCC3-6402-43C0-95BA-49A6A33C3F85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C472D8D-3D85-4D58-9BDD-DB8B93398EFA}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -544,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6396E776-1711-4568-A719-12B966118E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A9EC58-7E5B-4422-A808-C1B9C6075AF0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -676,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797F5477-7C67-4C71-B2D1-2FCA9830F8A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1925F3-F7B1-419A-8F44-FEAB0A53FBCB}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -808,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B815F5-B2F4-4EC8-A90D-71AD68824E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C92A7F-3E3D-4B1E-9E27-7975DAF37AF5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -862,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EAEC6-791E-4450-A7B6-0D11D0DBECF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB6FEC4-00D6-4148-BA30-3DCB8A76323D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
